--- a/Docs/Letras_matriz.xlsx
+++ b/Docs/Letras_matriz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Documents\Invierno_2020\Sistemas_Operativos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Documents\VS_Code\TC2008-I21-Eq5\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210F479-B3E5-4A6A-A2FB-A8EDEDC05E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B70FE50-ED16-425E-AECC-F69C1A1FEA3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C795F7BC-7DF8-4038-B9EA-056C60AFE3C8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="5">
   <si>
     <t>{</t>
   </si>
@@ -93,2931 +93,1973 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="308">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="216">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3616,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA8BDB6-0DF0-4C34-A4FA-6B6E692699E1}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7363,6 +6405,293 @@
         <v>0b00111110</v>
       </c>
     </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" t="str">
+        <f>CONCATENATE(A130,A129,A128,A127,A126,A125,A124,A123)</f>
+        <v>00011100</v>
+      </c>
+      <c r="K123" t="str">
+        <f>CONCATENATE($J$1,J123,L$1)</f>
+        <v>0b00011100,</v>
+      </c>
+      <c r="L123" t="str">
+        <f>CONCATENATE(K122,K123,K124,K125,K126,K127,K128,K129,K130,M$1,L$1)</f>
+        <v>{0b00011100,0b00011000,0b01110000,0b11111110,0b11111100,0b01110100,0b00011000,0b00011100},</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" t="str">
+        <f>CONCATENATE(B130,B129,B128,B127,B126,B125,B124,B123)</f>
+        <v>00011000</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" ref="K124:K129" si="26">CONCATENATE($J$1,J124,L$1)</f>
+        <v>0b00011000,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" t="str">
+        <f>CONCATENATE(C130,C129,C128,C127,C126,C125,C124,C123)</f>
+        <v>01110000</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="26"/>
+        <v>0b01110000,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1</v>
+      </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" t="str">
+        <f>CONCATENATE(D130,D129,D128,D127,D126,D125,D124,D123)</f>
+        <v>11111110</v>
+      </c>
+      <c r="K126" t="str">
+        <f t="shared" si="26"/>
+        <v>0b11111110,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" t="str">
+        <f>CONCATENATE(E130,E129,E128,E127,E126,E125,E124,E123)</f>
+        <v>11111100</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="26"/>
+        <v>0b11111100,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" t="str">
+        <f>CONCATENATE(F130,F129,F128,F127,F126,F125,F124,F123)</f>
+        <v>01110100</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="26"/>
+        <v>0b01110100,</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" t="str">
+        <f>CONCATENATE(G130,G129,G128,G127,G126,G125,G124,G123)</f>
+        <v>00011000</v>
+      </c>
+      <c r="K129" t="str">
+        <f t="shared" si="26"/>
+        <v>0b00011000,</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>0</v>
+      </c>
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" t="str">
+        <f>CONCATENATE(H130,H129,H128,H127,H126,H125,H124,H123)</f>
+        <v>00011100</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" ref="K130" si="27">CONCATENATE($J$1,J130)</f>
+        <v>0b00011100</v>
+      </c>
+    </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0</v>
@@ -7444,628 +6773,662 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H5">
-    <cfRule type="cellIs" dxfId="307" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="254" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="306" priority="242" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="243" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91:B91 A121:B121 A127:B127 A133:B133 A139:B139 A145:B145 D91:E91 D121:E121 D127:E127 D133:E133 D139:E139 D145:E145 A2:H5">
-    <cfRule type="cellIs" dxfId="304" priority="240" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="252" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="253" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91:B91 A121:B121 A133:B133 A139:B139 A145:B145 D91:E91 D121:E121 D133:E133 D139:E139 D145:E145 A2:H5">
+    <cfRule type="cellIs" dxfId="212" priority="250" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="251" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A101:E101">
-    <cfRule type="cellIs" dxfId="292" priority="228" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="238" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="239" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:E111">
-    <cfRule type="cellIs" dxfId="288" priority="224" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="225" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122:E126">
-    <cfRule type="cellIs" dxfId="284" priority="220" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="221" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A128:E132">
-    <cfRule type="cellIs" dxfId="282" priority="218" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="234" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="235" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131:E132">
+    <cfRule type="cellIs" dxfId="204" priority="228" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:E138">
-    <cfRule type="cellIs" dxfId="280" priority="216" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="226" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:E144">
-    <cfRule type="cellIs" dxfId="278" priority="214" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="224" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="225" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:E150">
-    <cfRule type="cellIs" dxfId="276" priority="212" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="222" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="223" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:E156">
-    <cfRule type="cellIs" dxfId="274" priority="210" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:E162 A164:E168">
-    <cfRule type="cellIs" dxfId="272" priority="208" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="218" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="219" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:E174">
-    <cfRule type="cellIs" dxfId="270" priority="206" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="216" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="268" priority="201" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="211" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="212" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="266" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="215" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="265" priority="203" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="213" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="214" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H14">
-    <cfRule type="cellIs" dxfId="263" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="210" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="262" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="208" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H14">
-    <cfRule type="cellIs" dxfId="260" priority="196" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="206" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="207" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H18">
-    <cfRule type="cellIs" dxfId="258" priority="191" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="201" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H18">
-    <cfRule type="cellIs" dxfId="256" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="205" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="255" priority="193" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="203" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="204" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H23">
-    <cfRule type="cellIs" dxfId="243" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="242" priority="178" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="188" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="189" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:H23">
-    <cfRule type="cellIs" dxfId="240" priority="176" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="186" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="187" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:H27">
-    <cfRule type="cellIs" dxfId="238" priority="171" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:H27">
-    <cfRule type="cellIs" dxfId="236" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="235" priority="173" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="183" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="184" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:H32">
-    <cfRule type="cellIs" dxfId="233" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="232" priority="168" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="178" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:H32">
-    <cfRule type="cellIs" dxfId="230" priority="166" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="177" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:H36">
-    <cfRule type="cellIs" dxfId="228" priority="161" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="171" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="172" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:H36">
-    <cfRule type="cellIs" dxfId="226" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="175" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="cellIs" dxfId="225" priority="163" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="173" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:H41">
-    <cfRule type="cellIs" dxfId="223" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="cellIs" dxfId="222" priority="158" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="168" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="169" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:H41">
-    <cfRule type="cellIs" dxfId="220" priority="156" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="166" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="167" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:H45">
-    <cfRule type="cellIs" dxfId="218" priority="151" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="161" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="162" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:H45">
-    <cfRule type="cellIs" dxfId="216" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="cellIs" dxfId="215" priority="153" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="163" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="164" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:H50">
-    <cfRule type="cellIs" dxfId="153" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="cellIs" dxfId="152" priority="98" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="108" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:H50">
-    <cfRule type="cellIs" dxfId="150" priority="96" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="106" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:H54">
-    <cfRule type="cellIs" dxfId="148" priority="91" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="101" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:H54">
-    <cfRule type="cellIs" dxfId="146" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="cellIs" dxfId="145" priority="93" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:H77">
-    <cfRule type="cellIs" dxfId="133" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="132" priority="78" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="89" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:H77">
-    <cfRule type="cellIs" dxfId="130" priority="76" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="86" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="87" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:H81">
-    <cfRule type="cellIs" dxfId="128" priority="71" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="81" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="82" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:H81">
-    <cfRule type="cellIs" dxfId="126" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="125" priority="73" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:H86">
-    <cfRule type="cellIs" dxfId="113" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="112" priority="58" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="68" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="69" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:H86">
-    <cfRule type="cellIs" dxfId="110" priority="56" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="67" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:H90">
-    <cfRule type="cellIs" dxfId="108" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="61" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87:H90">
-    <cfRule type="cellIs" dxfId="106" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="cellIs" dxfId="105" priority="53" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="63" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:H68">
-    <cfRule type="cellIs" dxfId="103" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66">
-    <cfRule type="cellIs" dxfId="102" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65:H68">
-    <cfRule type="cellIs" dxfId="100" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:H72">
-    <cfRule type="cellIs" dxfId="98" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="51" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:H72">
-    <cfRule type="cellIs" dxfId="96" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="53" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:H59">
-    <cfRule type="cellIs" dxfId="93" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57">
-    <cfRule type="cellIs" dxfId="92" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:H59">
-    <cfRule type="cellIs" dxfId="90" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:H63">
-    <cfRule type="cellIs" dxfId="88" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="41" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:H63">
-    <cfRule type="cellIs" dxfId="86" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
-    <cfRule type="cellIs" dxfId="85" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:H96">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:H96">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:H100 B96:H98">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:H100 B96:H98">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:H106">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:H106">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:H110">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A107:H110">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:H116">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A114">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113:H116">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:H120">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A117:H120">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:H126">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123:H126 A125:F127">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:H130">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A127:H130">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A128">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8384,7 +7747,7 @@
         <v>00111100</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K3:K9" si="2">CONCATENATE($J$1,J9)</f>
+        <f t="shared" ref="K9" si="2">CONCATENATE($J$1,J9)</f>
         <v>0b00111100</v>
       </c>
     </row>
@@ -8882,222 +8245,222 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H5">
-    <cfRule type="cellIs" dxfId="83" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="82" priority="52" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 A79:B79 A85:B85 A91:B91 A97:B97 A103:B103 A109:B109 A115:B115 A121:B121 A127:B127 A133:B133 A139:B139 A145:B145 A20:E24 A19:B19 D19:E19 A26:E30 A25:B25 D25:E25 A32:E36 A31:B31 D31:E31 A38:E42 A37:B37 D37:E37 A44:E48 A43:B43 D43:E43 A50:E54 A49:B49 D49:E49 A56:E60 A55:B55 D55:E55 A62:E66 A61:B61 D61:E61 A67:B67 D67:E67 D73:E73 D79:E79 D85:E85 D91:E91 D97:E97 D103:E103 D109:E109 D115:E115 D121:E121 D127:E127 D133:E133 D139:E139 D145:E145 A2:H5">
-    <cfRule type="cellIs" dxfId="80" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:E72">
-    <cfRule type="cellIs" dxfId="78" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:E78">
-    <cfRule type="cellIs" dxfId="76" priority="46" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:E84">
-    <cfRule type="cellIs" dxfId="74" priority="44" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:E90">
-    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:E96">
-    <cfRule type="cellIs" dxfId="70" priority="40" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:E102">
-    <cfRule type="cellIs" dxfId="68" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:E108">
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110:E114">
-    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116:E120">
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A122:E126">
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A128:E132">
-    <cfRule type="cellIs" dxfId="58" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134:E138">
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A140:E144">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:E150">
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:E156">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A158:E162 A164:E168">
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:E174">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H9">
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="41" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H14">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:H14">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H18">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H18">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
